--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,186 +49,183 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>waste</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>pay</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>short</t>
+    <t>tried</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>back</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>expected</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>even</t>
+    <t>much</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -247,12 +244,12 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -274,10 +271,10 @@
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
@@ -653,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -764,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -772,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -822,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,31 +887,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6">
+        <v>0.75</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6">
-        <v>0.7311827956989247</v>
-      </c>
-      <c r="L6">
-        <v>68</v>
-      </c>
-      <c r="M6">
-        <v>68</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7204301075268817</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.704225352112676</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>0.6037735849056604</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6941747572815534</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9">
-        <v>0.453125</v>
+        <v>0.53125</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10">
-        <v>0.4492753623188406</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6578947368421053</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>0.3295081967213115</v>
+        <v>0.340983606557377</v>
       </c>
       <c r="L11">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="M11">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>818</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>0.3070301291248206</v>
+        <v>0.2801724137931034</v>
       </c>
       <c r="L12">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="M12">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6296296296296297</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>0.2676348547717842</v>
+        <v>0.2572614107883817</v>
       </c>
       <c r="L13">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M13">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,49 +1269,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6216216216216216</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>92</v>
-      </c>
-      <c r="D14">
-        <v>92</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>56</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14">
-        <v>0.25</v>
-      </c>
-      <c r="L14">
-        <v>30</v>
-      </c>
-      <c r="M14">
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6190476190476191</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1340,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>0.1927710843373494</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5789473684210527</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16">
-        <v>0.1865443425076453</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L16">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>266</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5630252100840336</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>0.1322751322751323</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5625</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1490,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18">
-        <v>0.1004016064257028</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1514,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1522,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5428571428571428</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>0.08150744960560911</v>
+        <v>0.08764241893076249</v>
       </c>
       <c r="L19">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1564,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,28 +1569,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C20">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>28</v>
       </c>
-      <c r="D20">
-        <v>28</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>26</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K20">
         <v>0.08064516129032258</v>
@@ -1622,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4927536231884058</v>
+        <v>0.472463768115942</v>
       </c>
       <c r="C21">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D21">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1640,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K21">
-        <v>0.027255029201817</v>
+        <v>0.03634003893575601</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1672,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4698795180722892</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1690,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4566929133858268</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4444444444444444</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1742,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1768,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1794,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1802,13 +1799,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3968253968253968</v>
+        <v>0.34375</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1820,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1828,13 +1825,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3833333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1846,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1854,13 +1851,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.359375</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1872,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1880,13 +1877,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3578947368421053</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1898,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1932,13 +1929,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3118811881188119</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C32">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1950,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>139</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1958,13 +1955,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3061224489795918</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1976,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1984,13 +1981,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3046875</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2002,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>89</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2010,13 +2007,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.303370786516854</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2028,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2036,13 +2033,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2950819672131147</v>
+        <v>0.28125</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2054,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2062,13 +2059,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2938388625592417</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C37">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D37">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2080,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2088,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2857142857142857</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2106,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>45</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2114,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2678571428571428</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2132,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2140,13 +2137,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2474226804123711</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2158,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>146</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2166,13 +2163,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.24</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2184,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2192,13 +2189,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2244897959183673</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2210,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>76</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2218,13 +2215,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2051282051282051</v>
+        <v>0.195</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2236,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>93</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2244,13 +2241,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1795252225519288</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C44">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="D44">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2262,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>553</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2270,13 +2267,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1772151898734177</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C45">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2288,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>260</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2296,13 +2293,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1739130434782609</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2314,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>228</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2322,13 +2319,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1648351648351648</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2340,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>76</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2348,13 +2345,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1645569620253164</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C48">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2366,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>264</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2374,13 +2371,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1542857142857143</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2392,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2400,13 +2397,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1481481481481481</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2418,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>92</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2426,13 +2423,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1401869158878505</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2444,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>184</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2452,13 +2449,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1337579617834395</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2470,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>136</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2478,13 +2475,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.13</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2496,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2504,13 +2501,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1255506607929515</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="C54">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2522,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>397</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2530,22 +2527,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1152737752161383</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55">
         <v>41</v>
       </c>
       <c r="E55">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>307</v>
@@ -2556,13 +2553,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1048387096774194</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2574,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2582,13 +2579,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09737827715355805</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2600,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2608,25 +2605,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0851063829787234</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>172</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2634,13 +2631,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08493150684931507</v>
+        <v>0.09375</v>
       </c>
       <c r="C59">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2652,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>334</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2660,13 +2657,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.078125</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2678,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>177</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2712,13 +2709,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.0556792873051225</v>
+        <v>0.05122494432071269</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2730,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2738,25 +2735,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05357142857142857</v>
+        <v>0.05104408352668213</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>265</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2764,13 +2761,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05070422535211268</v>
+        <v>0.04788732394366197</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2790,25 +2787,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03953488372093023</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>413</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2816,50 +2813,24 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02900763358778626</v>
+        <v>0.02411167512690355</v>
       </c>
       <c r="C66">
         <v>19</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.02781289506953224</v>
-      </c>
-      <c r="C67">
-        <v>22</v>
-      </c>
-      <c r="D67">
-        <v>25</v>
-      </c>
-      <c r="E67">
-        <v>0.12</v>
-      </c>
-      <c r="F67">
-        <v>0.88</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67">
         <v>769</v>
       </c>
     </row>
